--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dlk2-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dlk2-Notch1.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Dlk2</t>
+  </si>
+  <si>
+    <t>Notch1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Dlk2</t>
-  </si>
-  <si>
-    <t>Notch1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -528,25 +528,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.132794</v>
+        <v>0.426906</v>
       </c>
       <c r="H2">
-        <v>0.398382</v>
+        <v>1.280718</v>
       </c>
       <c r="I2">
-        <v>0.1944380588699534</v>
+        <v>0.7206774171221364</v>
       </c>
       <c r="J2">
-        <v>0.1944380588699534</v>
+        <v>0.7206774171221364</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N2">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q2">
-        <v>9.030442171660001</v>
+        <v>25.169155243518</v>
       </c>
       <c r="R2">
-        <v>81.27397954494</v>
+        <v>226.522397191662</v>
       </c>
       <c r="S2">
-        <v>0.1218341546546787</v>
+        <v>0.3504760190278629</v>
       </c>
       <c r="T2">
-        <v>0.1218341546546787</v>
+        <v>0.3504760190278629</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.132794</v>
+        <v>0.426906</v>
       </c>
       <c r="H3">
-        <v>0.398382</v>
+        <v>1.280718</v>
       </c>
       <c r="I3">
-        <v>0.1944380588699534</v>
+        <v>0.7206774171221364</v>
       </c>
       <c r="J3">
-        <v>0.1944380588699534</v>
+        <v>0.7206774171221364</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>26.97459</v>
       </c>
       <c r="O3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q3">
-        <v>1.19402123482</v>
+        <v>3.83853810618</v>
       </c>
       <c r="R3">
-        <v>10.74619111338</v>
+        <v>34.54684295562</v>
       </c>
       <c r="S3">
-        <v>0.01610913009781105</v>
+        <v>0.0534509617555475</v>
       </c>
       <c r="T3">
-        <v>0.01610913009781105</v>
+        <v>0.0534509617555475</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.132794</v>
+        <v>0.426906</v>
       </c>
       <c r="H4">
-        <v>0.398382</v>
+        <v>1.280718</v>
       </c>
       <c r="I4">
-        <v>0.1944380588699534</v>
+        <v>0.7206774171221364</v>
       </c>
       <c r="J4">
-        <v>0.1944380588699534</v>
+        <v>0.7206774171221364</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N4">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q4">
-        <v>2.757452404278</v>
+        <v>18.150599893116</v>
       </c>
       <c r="R4">
-        <v>24.817071638502</v>
+        <v>163.355399038044</v>
       </c>
       <c r="S4">
-        <v>0.03720215204190448</v>
+        <v>0.2527438816265054</v>
       </c>
       <c r="T4">
-        <v>0.0372021520419045</v>
+        <v>0.2527438816265054</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,25 +714,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.132794</v>
+        <v>0.426906</v>
       </c>
       <c r="H5">
-        <v>0.398382</v>
+        <v>1.280718</v>
       </c>
       <c r="I5">
-        <v>0.1944380588699534</v>
+        <v>0.7206774171221364</v>
       </c>
       <c r="J5">
-        <v>0.1944380588699534</v>
+        <v>0.7206774171221364</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N5">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O5">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P5">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q5">
-        <v>1.429984132830667</v>
+        <v>4.596579579461999</v>
       </c>
       <c r="R5">
-        <v>12.869857195476</v>
+        <v>41.369216215158</v>
       </c>
       <c r="S5">
-        <v>0.01929262207555915</v>
+        <v>0.06400655471222064</v>
       </c>
       <c r="T5">
-        <v>0.01929262207555916</v>
+        <v>0.06400655471222065</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.426906</v>
+        <v>0.1459986666666667</v>
       </c>
       <c r="H6">
-        <v>1.280718</v>
+        <v>0.4379960000000001</v>
       </c>
       <c r="I6">
-        <v>0.625079250266852</v>
+        <v>0.2464662993647526</v>
       </c>
       <c r="J6">
-        <v>0.625079250266852</v>
+        <v>0.2464662993647526</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N6">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O6">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P6">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q6">
-        <v>29.03105521134</v>
+        <v>8.607663295151557</v>
       </c>
       <c r="R6">
-        <v>261.27949690206</v>
+        <v>77.46896965636401</v>
       </c>
       <c r="S6">
-        <v>0.3916723016628031</v>
+        <v>0.1198601834518823</v>
       </c>
       <c r="T6">
-        <v>0.3916723016628031</v>
+        <v>0.1198601834518823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.426906</v>
+        <v>0.1459986666666667</v>
       </c>
       <c r="H7">
-        <v>1.280718</v>
+        <v>0.4379960000000001</v>
       </c>
       <c r="I7">
-        <v>0.625079250266852</v>
+        <v>0.2464662993647526</v>
       </c>
       <c r="J7">
-        <v>0.625079250266852</v>
+        <v>0.2464662993647526</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>26.97459</v>
       </c>
       <c r="O7">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P7">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q7">
-        <v>3.83853810618</v>
+        <v>1.312751391293334</v>
       </c>
       <c r="R7">
-        <v>34.54684295562</v>
+        <v>11.81476252164</v>
       </c>
       <c r="S7">
-        <v>0.05178761309649627</v>
+        <v>0.01827983009927461</v>
       </c>
       <c r="T7">
-        <v>0.05178761309649627</v>
+        <v>0.01827983009927462</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.426906</v>
+        <v>0.1459986666666667</v>
       </c>
       <c r="H8">
-        <v>1.280718</v>
+        <v>0.4379960000000001</v>
       </c>
       <c r="I8">
-        <v>0.625079250266852</v>
+        <v>0.2464662993647526</v>
       </c>
       <c r="J8">
-        <v>0.625079250266852</v>
+        <v>0.2464662993647526</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N8">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O8">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P8">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q8">
-        <v>8.864654849621999</v>
+        <v>6.207369733840889</v>
       </c>
       <c r="R8">
-        <v>79.78189364659799</v>
+        <v>55.86632760456801</v>
       </c>
       <c r="S8">
-        <v>0.1195974360257337</v>
+        <v>0.08643652168305813</v>
       </c>
       <c r="T8">
-        <v>0.1195974360257337</v>
+        <v>0.08643652168305814</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.426906</v>
+        <v>0.1459986666666667</v>
       </c>
       <c r="H9">
-        <v>1.280718</v>
+        <v>0.4379960000000001</v>
       </c>
       <c r="I9">
-        <v>0.625079250266852</v>
+        <v>0.2464662993647526</v>
       </c>
       <c r="J9">
-        <v>0.625079250266852</v>
+        <v>0.2464662993647526</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N9">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O9">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P9">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q9">
-        <v>4.597111362036</v>
+        <v>1.571995919075111</v>
       </c>
       <c r="R9">
-        <v>41.374002258324</v>
+        <v>14.147963271676</v>
       </c>
       <c r="S9">
-        <v>0.06202189948181887</v>
+        <v>0.02188976413053755</v>
       </c>
       <c r="T9">
-        <v>0.06202189948181889</v>
+        <v>0.02188976413053756</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.123263</v>
+        <v>0.019463</v>
       </c>
       <c r="H10">
-        <v>0.369789</v>
+        <v>0.058389</v>
       </c>
       <c r="I10">
-        <v>0.1804826908631946</v>
+        <v>0.03285628351311094</v>
       </c>
       <c r="J10">
-        <v>0.1804826908631946</v>
+        <v>0.03285628351311094</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N10">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O10">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P10">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q10">
-        <v>8.382301861570001</v>
+        <v>1.147482744455667</v>
       </c>
       <c r="R10">
-        <v>75.44071675413001</v>
+        <v>10.327344700101</v>
       </c>
       <c r="S10">
-        <v>0.1130897736735068</v>
+        <v>0.015978493528644</v>
       </c>
       <c r="T10">
-        <v>0.1130897736735068</v>
+        <v>0.015978493528644</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,7 +1086,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.123263</v>
+        <v>0.019463</v>
       </c>
       <c r="H11">
-        <v>0.369789</v>
+        <v>0.058389</v>
       </c>
       <c r="I11">
-        <v>0.1804826908631946</v>
+        <v>0.03285628351311094</v>
       </c>
       <c r="J11">
-        <v>0.1804826908631946</v>
+        <v>0.03285628351311094</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>26.97459</v>
       </c>
       <c r="O11">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P11">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q11">
-        <v>1.10832296239</v>
+        <v>0.17500214839</v>
       </c>
       <c r="R11">
-        <v>9.974906661509999</v>
+        <v>1.57501933551</v>
       </c>
       <c r="S11">
-        <v>0.01495293238584939</v>
+        <v>0.002436873851967929</v>
       </c>
       <c r="T11">
-        <v>0.01495293238584939</v>
+        <v>0.00243687385196793</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1148,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.123263</v>
+        <v>0.019463</v>
       </c>
       <c r="H12">
-        <v>0.369789</v>
+        <v>0.058389</v>
       </c>
       <c r="I12">
-        <v>0.1804826908631946</v>
+        <v>0.03285628351311094</v>
       </c>
       <c r="J12">
-        <v>0.1804826908631946</v>
+        <v>0.03285628351311094</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N12">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O12">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P12">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q12">
-        <v>2.559542266281</v>
+        <v>0.8275009620846665</v>
       </c>
       <c r="R12">
-        <v>23.035880396529</v>
+        <v>7.447508658762</v>
       </c>
       <c r="S12">
-        <v>0.0345320486403096</v>
+        <v>0.011522804008603</v>
       </c>
       <c r="T12">
-        <v>0.0345320486403096</v>
+        <v>0.011522804008603</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1210,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.123263</v>
+        <v>0.019463</v>
       </c>
       <c r="H13">
-        <v>0.369789</v>
+        <v>0.058389</v>
       </c>
       <c r="I13">
-        <v>0.1804826908631946</v>
+        <v>0.03285628351311094</v>
       </c>
       <c r="J13">
-        <v>0.1804826908631946</v>
+        <v>0.03285628351311094</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N13">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O13">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P13">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q13">
-        <v>1.327350137544667</v>
+        <v>0.2095618903343333</v>
       </c>
       <c r="R13">
-        <v>11.946151237902</v>
+        <v>1.886057013009</v>
       </c>
       <c r="S13">
-        <v>0.01790793616352883</v>
+        <v>0.00291811212389601</v>
       </c>
       <c r="T13">
-        <v>0.01790793616352884</v>
+        <v>0.002918112123896011</v>
       </c>
     </row>
   </sheetData>
